--- a/CGL Retailer Details.xlsx
+++ b/CGL Retailer Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201307\Documents\Chatbot_HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD70C689-F47A-48AA-B861-18E243DD6601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B723AFD-E7C5-402F-BBF6-431537EE426C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F79E525A-48BB-4130-9810-4A9F66D41FDF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="54">
   <si>
     <t>PO</t>
   </si>
@@ -173,9 +173,6 @@
     <t>NI</t>
   </si>
   <si>
-    <t>Vittal</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
@@ -192,6 +189,15 @@
   </si>
   <si>
     <t>Raj </t>
+  </si>
+  <si>
+    <t>Vithal</t>
+  </si>
+  <si>
+    <t>Chandra</t>
+  </si>
+  <si>
+    <t>WI</t>
   </si>
 </sst>
 </file>
@@ -549,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E1B2D3-CE6C-46DC-8AE9-A5EE63CDE89C}">
-  <dimension ref="A1:O364"/>
+  <dimension ref="A1:O365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="A362" sqref="A362:O364"/>
+    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="K365" sqref="K365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,10 +759,10 @@
         <v>1027</v>
       </c>
       <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
         <v>49</v>
-      </c>
-      <c r="O4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -988,10 +994,10 @@
         <v>612</v>
       </c>
       <c r="N9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" t="s">
         <v>49</v>
-      </c>
-      <c r="O9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1223,10 +1229,10 @@
         <v>1032</v>
       </c>
       <c r="N14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" t="s">
         <v>49</v>
-      </c>
-      <c r="O14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1458,10 +1464,10 @@
         <v>1033</v>
       </c>
       <c r="N19" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" t="s">
         <v>49</v>
-      </c>
-      <c r="O19" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1693,10 +1699,10 @@
         <v>539</v>
       </c>
       <c r="N24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24" t="s">
         <v>49</v>
-      </c>
-      <c r="O24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1928,10 +1934,10 @@
         <v>279</v>
       </c>
       <c r="N29" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29" t="s">
         <v>49</v>
-      </c>
-      <c r="O29" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2163,10 +2169,10 @@
         <v>713</v>
       </c>
       <c r="N34" t="s">
+        <v>48</v>
+      </c>
+      <c r="O34" t="s">
         <v>49</v>
-      </c>
-      <c r="O34" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2398,10 +2404,10 @@
         <v>299</v>
       </c>
       <c r="N39" t="s">
+        <v>48</v>
+      </c>
+      <c r="O39" t="s">
         <v>49</v>
-      </c>
-      <c r="O39" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2633,10 +2639,10 @@
         <v>819</v>
       </c>
       <c r="N44" t="s">
+        <v>48</v>
+      </c>
+      <c r="O44" t="s">
         <v>49</v>
-      </c>
-      <c r="O44" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2868,10 +2874,10 @@
         <v>261</v>
       </c>
       <c r="N49" t="s">
+        <v>48</v>
+      </c>
+      <c r="O49" t="s">
         <v>49</v>
-      </c>
-      <c r="O49" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3103,10 +3109,10 @@
         <v>683</v>
       </c>
       <c r="N54" t="s">
+        <v>48</v>
+      </c>
+      <c r="O54" t="s">
         <v>49</v>
-      </c>
-      <c r="O54" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -3338,10 +3344,10 @@
         <v>881</v>
       </c>
       <c r="N59" t="s">
+        <v>48</v>
+      </c>
+      <c r="O59" t="s">
         <v>49</v>
-      </c>
-      <c r="O59" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -3573,10 +3579,10 @@
         <v>886</v>
       </c>
       <c r="N64" t="s">
+        <v>48</v>
+      </c>
+      <c r="O64" t="s">
         <v>49</v>
-      </c>
-      <c r="O64" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -3808,10 +3814,10 @@
         <v>838</v>
       </c>
       <c r="N69" t="s">
+        <v>48</v>
+      </c>
+      <c r="O69" t="s">
         <v>49</v>
-      </c>
-      <c r="O69" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -4043,10 +4049,10 @@
         <v>197</v>
       </c>
       <c r="N74" t="s">
+        <v>48</v>
+      </c>
+      <c r="O74" t="s">
         <v>49</v>
-      </c>
-      <c r="O74" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -4278,10 +4284,10 @@
         <v>453</v>
       </c>
       <c r="N79" t="s">
+        <v>48</v>
+      </c>
+      <c r="O79" t="s">
         <v>49</v>
-      </c>
-      <c r="O79" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -4513,10 +4519,10 @@
         <v>742</v>
       </c>
       <c r="N84" t="s">
+        <v>48</v>
+      </c>
+      <c r="O84" t="s">
         <v>49</v>
-      </c>
-      <c r="O84" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
@@ -4748,10 +4754,10 @@
         <v>700</v>
       </c>
       <c r="N89" t="s">
+        <v>48</v>
+      </c>
+      <c r="O89" t="s">
         <v>49</v>
-      </c>
-      <c r="O89" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -4983,10 +4989,10 @@
         <v>437</v>
       </c>
       <c r="N94" t="s">
+        <v>48</v>
+      </c>
+      <c r="O94" t="s">
         <v>49</v>
-      </c>
-      <c r="O94" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
@@ -5218,10 +5224,10 @@
         <v>1039</v>
       </c>
       <c r="N99" t="s">
+        <v>48</v>
+      </c>
+      <c r="O99" t="s">
         <v>49</v>
-      </c>
-      <c r="O99" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -5453,10 +5459,10 @@
         <v>172</v>
       </c>
       <c r="N104" t="s">
+        <v>48</v>
+      </c>
+      <c r="O104" t="s">
         <v>49</v>
-      </c>
-      <c r="O104" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -5688,10 +5694,10 @@
         <v>457</v>
       </c>
       <c r="N109" t="s">
+        <v>48</v>
+      </c>
+      <c r="O109" t="s">
         <v>49</v>
-      </c>
-      <c r="O109" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -5923,10 +5929,10 @@
         <v>843</v>
       </c>
       <c r="N114" t="s">
+        <v>48</v>
+      </c>
+      <c r="O114" t="s">
         <v>49</v>
-      </c>
-      <c r="O114" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -6158,10 +6164,10 @@
         <v>921</v>
       </c>
       <c r="N119" t="s">
+        <v>48</v>
+      </c>
+      <c r="O119" t="s">
         <v>49</v>
-      </c>
-      <c r="O119" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -6393,10 +6399,10 @@
         <v>984</v>
       </c>
       <c r="N124" t="s">
+        <v>48</v>
+      </c>
+      <c r="O124" t="s">
         <v>49</v>
-      </c>
-      <c r="O124" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
@@ -6628,10 +6634,10 @@
         <v>1017</v>
       </c>
       <c r="N129" t="s">
+        <v>48</v>
+      </c>
+      <c r="O129" t="s">
         <v>49</v>
-      </c>
-      <c r="O129" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
@@ -6863,10 +6869,10 @@
         <v>260</v>
       </c>
       <c r="N134" t="s">
+        <v>48</v>
+      </c>
+      <c r="O134" t="s">
         <v>49</v>
-      </c>
-      <c r="O134" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
@@ -7098,10 +7104,10 @@
         <v>929</v>
       </c>
       <c r="N139" t="s">
+        <v>48</v>
+      </c>
+      <c r="O139" t="s">
         <v>49</v>
-      </c>
-      <c r="O139" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
@@ -7333,10 +7339,10 @@
         <v>739</v>
       </c>
       <c r="N144" t="s">
+        <v>48</v>
+      </c>
+      <c r="O144" t="s">
         <v>49</v>
-      </c>
-      <c r="O144" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
@@ -7568,10 +7574,10 @@
         <v>868</v>
       </c>
       <c r="N149" t="s">
+        <v>48</v>
+      </c>
+      <c r="O149" t="s">
         <v>49</v>
-      </c>
-      <c r="O149" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
@@ -7803,10 +7809,10 @@
         <v>889</v>
       </c>
       <c r="N154" t="s">
+        <v>48</v>
+      </c>
+      <c r="O154" t="s">
         <v>49</v>
-      </c>
-      <c r="O154" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
@@ -8038,10 +8044,10 @@
         <v>402</v>
       </c>
       <c r="N159" t="s">
+        <v>48</v>
+      </c>
+      <c r="O159" t="s">
         <v>49</v>
-      </c>
-      <c r="O159" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
@@ -8273,10 +8279,10 @@
         <v>199</v>
       </c>
       <c r="N164" t="s">
+        <v>48</v>
+      </c>
+      <c r="O164" t="s">
         <v>49</v>
-      </c>
-      <c r="O164" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -8508,10 +8514,10 @@
         <v>550</v>
       </c>
       <c r="N169" t="s">
+        <v>48</v>
+      </c>
+      <c r="O169" t="s">
         <v>49</v>
-      </c>
-      <c r="O169" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
@@ -8743,10 +8749,10 @@
         <v>197</v>
       </c>
       <c r="N174" t="s">
+        <v>48</v>
+      </c>
+      <c r="O174" t="s">
         <v>49</v>
-      </c>
-      <c r="O174" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -8978,10 +8984,10 @@
         <v>280</v>
       </c>
       <c r="N179" t="s">
+        <v>48</v>
+      </c>
+      <c r="O179" t="s">
         <v>49</v>
-      </c>
-      <c r="O179" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
@@ -9213,10 +9219,10 @@
         <v>552</v>
       </c>
       <c r="N184" t="s">
+        <v>48</v>
+      </c>
+      <c r="O184" t="s">
         <v>49</v>
-      </c>
-      <c r="O184" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
@@ -9448,10 +9454,10 @@
         <v>506</v>
       </c>
       <c r="N189" t="s">
+        <v>48</v>
+      </c>
+      <c r="O189" t="s">
         <v>49</v>
-      </c>
-      <c r="O189" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
@@ -9683,10 +9689,10 @@
         <v>241</v>
       </c>
       <c r="N194" t="s">
+        <v>48</v>
+      </c>
+      <c r="O194" t="s">
         <v>49</v>
-      </c>
-      <c r="O194" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
@@ -9918,10 +9924,10 @@
         <v>551</v>
       </c>
       <c r="N199" t="s">
+        <v>48</v>
+      </c>
+      <c r="O199" t="s">
         <v>49</v>
-      </c>
-      <c r="O199" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
@@ -10153,10 +10159,10 @@
         <v>878</v>
       </c>
       <c r="N204" t="s">
+        <v>48</v>
+      </c>
+      <c r="O204" t="s">
         <v>49</v>
-      </c>
-      <c r="O204" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
@@ -10388,10 +10394,10 @@
         <v>378</v>
       </c>
       <c r="N209" t="s">
+        <v>48</v>
+      </c>
+      <c r="O209" t="s">
         <v>49</v>
-      </c>
-      <c r="O209" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
@@ -10623,10 +10629,10 @@
         <v>579</v>
       </c>
       <c r="N214" t="s">
+        <v>48</v>
+      </c>
+      <c r="O214" t="s">
         <v>49</v>
-      </c>
-      <c r="O214" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
@@ -10858,10 +10864,10 @@
         <v>661</v>
       </c>
       <c r="N219" t="s">
+        <v>48</v>
+      </c>
+      <c r="O219" t="s">
         <v>49</v>
-      </c>
-      <c r="O219" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
@@ -11093,10 +11099,10 @@
         <v>1039</v>
       </c>
       <c r="N224" t="s">
+        <v>48</v>
+      </c>
+      <c r="O224" t="s">
         <v>49</v>
-      </c>
-      <c r="O224" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
@@ -11328,10 +11334,10 @@
         <v>835</v>
       </c>
       <c r="N229" t="s">
+        <v>48</v>
+      </c>
+      <c r="O229" t="s">
         <v>49</v>
-      </c>
-      <c r="O229" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
@@ -11563,10 +11569,10 @@
         <v>972</v>
       </c>
       <c r="N234" t="s">
+        <v>48</v>
+      </c>
+      <c r="O234" t="s">
         <v>49</v>
-      </c>
-      <c r="O234" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
@@ -11798,10 +11804,10 @@
         <v>955</v>
       </c>
       <c r="N239" t="s">
+        <v>48</v>
+      </c>
+      <c r="O239" t="s">
         <v>49</v>
-      </c>
-      <c r="O239" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
@@ -12033,10 +12039,10 @@
         <v>594</v>
       </c>
       <c r="N244" t="s">
+        <v>48</v>
+      </c>
+      <c r="O244" t="s">
         <v>49</v>
-      </c>
-      <c r="O244" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
@@ -12268,10 +12274,10 @@
         <v>294</v>
       </c>
       <c r="N249" t="s">
+        <v>48</v>
+      </c>
+      <c r="O249" t="s">
         <v>49</v>
-      </c>
-      <c r="O249" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
@@ -12503,10 +12509,10 @@
         <v>466</v>
       </c>
       <c r="N254" t="s">
+        <v>48</v>
+      </c>
+      <c r="O254" t="s">
         <v>49</v>
-      </c>
-      <c r="O254" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
@@ -12738,10 +12744,10 @@
         <v>491</v>
       </c>
       <c r="N259" t="s">
+        <v>48</v>
+      </c>
+      <c r="O259" t="s">
         <v>49</v>
-      </c>
-      <c r="O259" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.25">
@@ -12973,10 +12979,10 @@
         <v>1007</v>
       </c>
       <c r="N264" t="s">
+        <v>48</v>
+      </c>
+      <c r="O264" t="s">
         <v>49</v>
-      </c>
-      <c r="O264" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
@@ -13208,10 +13214,10 @@
         <v>1108</v>
       </c>
       <c r="N269" t="s">
+        <v>48</v>
+      </c>
+      <c r="O269" t="s">
         <v>49</v>
-      </c>
-      <c r="O269" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
@@ -13443,10 +13449,10 @@
         <v>1066</v>
       </c>
       <c r="N274" t="s">
+        <v>48</v>
+      </c>
+      <c r="O274" t="s">
         <v>49</v>
-      </c>
-      <c r="O274" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
@@ -13678,10 +13684,10 @@
         <v>426</v>
       </c>
       <c r="N279" t="s">
+        <v>48</v>
+      </c>
+      <c r="O279" t="s">
         <v>49</v>
-      </c>
-      <c r="O279" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
@@ -13913,10 +13919,10 @@
         <v>308</v>
       </c>
       <c r="N284" t="s">
+        <v>48</v>
+      </c>
+      <c r="O284" t="s">
         <v>49</v>
-      </c>
-      <c r="O284" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
@@ -14148,10 +14154,10 @@
         <v>306</v>
       </c>
       <c r="N289" t="s">
+        <v>48</v>
+      </c>
+      <c r="O289" t="s">
         <v>49</v>
-      </c>
-      <c r="O289" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.25">
@@ -14383,10 +14389,10 @@
         <v>443</v>
       </c>
       <c r="N294" t="s">
+        <v>48</v>
+      </c>
+      <c r="O294" t="s">
         <v>49</v>
-      </c>
-      <c r="O294" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.25">
@@ -14618,10 +14624,10 @@
         <v>368</v>
       </c>
       <c r="N299" t="s">
+        <v>48</v>
+      </c>
+      <c r="O299" t="s">
         <v>49</v>
-      </c>
-      <c r="O299" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.25">
@@ -14853,10 +14859,10 @@
         <v>571</v>
       </c>
       <c r="N304" t="s">
+        <v>48</v>
+      </c>
+      <c r="O304" t="s">
         <v>49</v>
-      </c>
-      <c r="O304" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.25">
@@ -15088,10 +15094,10 @@
         <v>762</v>
       </c>
       <c r="N309" t="s">
+        <v>48</v>
+      </c>
+      <c r="O309" t="s">
         <v>49</v>
-      </c>
-      <c r="O309" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.25">
@@ -15323,10 +15329,10 @@
         <v>423</v>
       </c>
       <c r="N314" t="s">
+        <v>48</v>
+      </c>
+      <c r="O314" t="s">
         <v>49</v>
-      </c>
-      <c r="O314" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.25">
@@ -15558,10 +15564,10 @@
         <v>1068</v>
       </c>
       <c r="N319" t="s">
+        <v>48</v>
+      </c>
+      <c r="O319" t="s">
         <v>49</v>
-      </c>
-      <c r="O319" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.25">
@@ -15793,10 +15799,10 @@
         <v>485</v>
       </c>
       <c r="N324" t="s">
+        <v>48</v>
+      </c>
+      <c r="O324" t="s">
         <v>49</v>
-      </c>
-      <c r="O324" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.25">
@@ -16028,10 +16034,10 @@
         <v>987</v>
       </c>
       <c r="N329" t="s">
+        <v>48</v>
+      </c>
+      <c r="O329" t="s">
         <v>49</v>
-      </c>
-      <c r="O329" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.25">
@@ -16263,10 +16269,10 @@
         <v>412</v>
       </c>
       <c r="N334" t="s">
+        <v>48</v>
+      </c>
+      <c r="O334" t="s">
         <v>49</v>
-      </c>
-      <c r="O334" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.25">
@@ -16498,10 +16504,10 @@
         <v>610</v>
       </c>
       <c r="N339" t="s">
+        <v>48</v>
+      </c>
+      <c r="O339" t="s">
         <v>49</v>
-      </c>
-      <c r="O339" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.25">
@@ -16733,10 +16739,10 @@
         <v>363</v>
       </c>
       <c r="N344" t="s">
+        <v>48</v>
+      </c>
+      <c r="O344" t="s">
         <v>49</v>
-      </c>
-      <c r="O344" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.25">
@@ -16968,10 +16974,10 @@
         <v>959</v>
       </c>
       <c r="N349" t="s">
+        <v>48</v>
+      </c>
+      <c r="O349" t="s">
         <v>49</v>
-      </c>
-      <c r="O349" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.25">
@@ -17203,10 +17209,10 @@
         <v>1048</v>
       </c>
       <c r="N354" t="s">
+        <v>48</v>
+      </c>
+      <c r="O354" t="s">
         <v>49</v>
-      </c>
-      <c r="O354" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.25">
@@ -17438,10 +17444,10 @@
         <v>272</v>
       </c>
       <c r="N359" t="s">
+        <v>48</v>
+      </c>
+      <c r="O359" t="s">
         <v>49</v>
-      </c>
-      <c r="O359" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.25">
@@ -17546,16 +17552,16 @@
         <v>22</v>
       </c>
       <c r="C362" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D362">
-        <v>932245</v>
+        <v>181800</v>
       </c>
       <c r="E362">
         <v>999999999</v>
       </c>
       <c r="N362" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.25">
@@ -17566,7 +17572,7 @@
         <v>22</v>
       </c>
       <c r="C363" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D363">
         <v>941795</v>
@@ -17575,7 +17581,7 @@
         <v>888888888</v>
       </c>
       <c r="N363" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.25">
@@ -17586,16 +17592,36 @@
         <v>22</v>
       </c>
       <c r="C364" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D364">
-        <v>934771</v>
+        <v>322300</v>
       </c>
       <c r="E364">
         <v>777777777</v>
       </c>
       <c r="N364" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A365" s="2">
+        <v>43514</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C365" t="s">
+        <v>52</v>
+      </c>
+      <c r="D365">
+        <v>349000</v>
+      </c>
+      <c r="E365">
+        <v>666666666</v>
+      </c>
+      <c r="N365" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -17606,9 +17632,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17726,25 +17755,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBD8E120-5285-40A4-8B0C-33046C86846D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37994435-2A3E-43A8-870D-793DD8A6382F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17766,9 +17785,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37994435-2A3E-43A8-870D-793DD8A6382F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBD8E120-5285-40A4-8B0C-33046C86846D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CGL Retailer Details.xlsx
+++ b/CGL Retailer Details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201307\Documents\Chatbot_HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\chatbot\chatbot-CGL-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B723AFD-E7C5-402F-BBF6-431537EE426C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84455E25-2412-444F-A1A9-89C37ADF79B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F79E525A-48BB-4130-9810-4A9F66D41FDF}"/>
   </bookViews>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="53">
   <si>
     <t>PO</t>
   </si>
@@ -173,6 +171,9 @@
     <t>NI</t>
   </si>
   <si>
+    <t>Vittal</t>
+  </si>
+  <si>
     <t>SI</t>
   </si>
   <si>
@@ -191,13 +192,7 @@
     <t>Raj </t>
   </si>
   <si>
-    <t>Vithal</t>
-  </si>
-  <si>
-    <t>Chandra</t>
-  </si>
-  <si>
-    <t>WI</t>
+    <t>Umesh</t>
   </si>
 </sst>
 </file>
@@ -557,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E1B2D3-CE6C-46DC-8AE9-A5EE63CDE89C}">
   <dimension ref="A1:O365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="K365" sqref="K365"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="D366" sqref="D366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,10 +754,10 @@
         <v>1027</v>
       </c>
       <c r="N4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -994,10 +989,10 @@
         <v>612</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1229,10 +1224,10 @@
         <v>1032</v>
       </c>
       <c r="N14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1464,10 +1459,10 @@
         <v>1033</v>
       </c>
       <c r="N19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1699,10 +1694,10 @@
         <v>539</v>
       </c>
       <c r="N24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1934,10 +1929,10 @@
         <v>279</v>
       </c>
       <c r="N29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2169,10 +2164,10 @@
         <v>713</v>
       </c>
       <c r="N34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2404,10 +2399,10 @@
         <v>299</v>
       </c>
       <c r="N39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2639,10 +2634,10 @@
         <v>819</v>
       </c>
       <c r="N44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2874,10 +2869,10 @@
         <v>261</v>
       </c>
       <c r="N49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3109,10 +3104,10 @@
         <v>683</v>
       </c>
       <c r="N54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -3344,10 +3339,10 @@
         <v>881</v>
       </c>
       <c r="N59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -3579,10 +3574,10 @@
         <v>886</v>
       </c>
       <c r="N64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -3814,10 +3809,10 @@
         <v>838</v>
       </c>
       <c r="N69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -4049,10 +4044,10 @@
         <v>197</v>
       </c>
       <c r="N74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -4284,10 +4279,10 @@
         <v>453</v>
       </c>
       <c r="N79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -4519,10 +4514,10 @@
         <v>742</v>
       </c>
       <c r="N84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
@@ -4754,10 +4749,10 @@
         <v>700</v>
       </c>
       <c r="N89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -4989,10 +4984,10 @@
         <v>437</v>
       </c>
       <c r="N94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
@@ -5224,10 +5219,10 @@
         <v>1039</v>
       </c>
       <c r="N99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -5459,10 +5454,10 @@
         <v>172</v>
       </c>
       <c r="N104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -5694,10 +5689,10 @@
         <v>457</v>
       </c>
       <c r="N109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -5929,10 +5924,10 @@
         <v>843</v>
       </c>
       <c r="N114" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -6164,10 +6159,10 @@
         <v>921</v>
       </c>
       <c r="N119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -6399,10 +6394,10 @@
         <v>984</v>
       </c>
       <c r="N124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O124" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
@@ -6634,10 +6629,10 @@
         <v>1017</v>
       </c>
       <c r="N129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O129" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
@@ -6869,10 +6864,10 @@
         <v>260</v>
       </c>
       <c r="N134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
@@ -7104,10 +7099,10 @@
         <v>929</v>
       </c>
       <c r="N139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O139" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
@@ -7339,10 +7334,10 @@
         <v>739</v>
       </c>
       <c r="N144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
@@ -7574,10 +7569,10 @@
         <v>868</v>
       </c>
       <c r="N149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O149" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
@@ -7809,10 +7804,10 @@
         <v>889</v>
       </c>
       <c r="N154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O154" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
@@ -8044,10 +8039,10 @@
         <v>402</v>
       </c>
       <c r="N159" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O159" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
@@ -8279,10 +8274,10 @@
         <v>199</v>
       </c>
       <c r="N164" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O164" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -8514,10 +8509,10 @@
         <v>550</v>
       </c>
       <c r="N169" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O169" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
@@ -8749,10 +8744,10 @@
         <v>197</v>
       </c>
       <c r="N174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O174" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -8984,10 +8979,10 @@
         <v>280</v>
       </c>
       <c r="N179" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O179" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
@@ -9219,10 +9214,10 @@
         <v>552</v>
       </c>
       <c r="N184" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O184" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
@@ -9454,10 +9449,10 @@
         <v>506</v>
       </c>
       <c r="N189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O189" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
@@ -9689,10 +9684,10 @@
         <v>241</v>
       </c>
       <c r="N194" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O194" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
@@ -9924,10 +9919,10 @@
         <v>551</v>
       </c>
       <c r="N199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O199" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
@@ -10159,10 +10154,10 @@
         <v>878</v>
       </c>
       <c r="N204" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O204" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
@@ -10394,10 +10389,10 @@
         <v>378</v>
       </c>
       <c r="N209" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O209" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
@@ -10629,10 +10624,10 @@
         <v>579</v>
       </c>
       <c r="N214" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O214" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
@@ -10864,10 +10859,10 @@
         <v>661</v>
       </c>
       <c r="N219" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O219" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
@@ -11099,10 +11094,10 @@
         <v>1039</v>
       </c>
       <c r="N224" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O224" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
@@ -11334,10 +11329,10 @@
         <v>835</v>
       </c>
       <c r="N229" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O229" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
@@ -11569,10 +11564,10 @@
         <v>972</v>
       </c>
       <c r="N234" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O234" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
@@ -11804,10 +11799,10 @@
         <v>955</v>
       </c>
       <c r="N239" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O239" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
@@ -12039,10 +12034,10 @@
         <v>594</v>
       </c>
       <c r="N244" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O244" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
@@ -12274,10 +12269,10 @@
         <v>294</v>
       </c>
       <c r="N249" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O249" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
@@ -12509,10 +12504,10 @@
         <v>466</v>
       </c>
       <c r="N254" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O254" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
@@ -12744,10 +12739,10 @@
         <v>491</v>
       </c>
       <c r="N259" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O259" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.25">
@@ -12979,10 +12974,10 @@
         <v>1007</v>
       </c>
       <c r="N264" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O264" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
@@ -13214,10 +13209,10 @@
         <v>1108</v>
       </c>
       <c r="N269" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O269" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
@@ -13449,10 +13444,10 @@
         <v>1066</v>
       </c>
       <c r="N274" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O274" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
@@ -13684,10 +13679,10 @@
         <v>426</v>
       </c>
       <c r="N279" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O279" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
@@ -13919,10 +13914,10 @@
         <v>308</v>
       </c>
       <c r="N284" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O284" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
@@ -14154,10 +14149,10 @@
         <v>306</v>
       </c>
       <c r="N289" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O289" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.25">
@@ -14389,10 +14384,10 @@
         <v>443</v>
       </c>
       <c r="N294" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O294" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.25">
@@ -14624,10 +14619,10 @@
         <v>368</v>
       </c>
       <c r="N299" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O299" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.25">
@@ -14859,10 +14854,10 @@
         <v>571</v>
       </c>
       <c r="N304" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O304" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.25">
@@ -15094,10 +15089,10 @@
         <v>762</v>
       </c>
       <c r="N309" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O309" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.25">
@@ -15329,10 +15324,10 @@
         <v>423</v>
       </c>
       <c r="N314" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O314" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.25">
@@ -15564,10 +15559,10 @@
         <v>1068</v>
       </c>
       <c r="N319" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O319" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.25">
@@ -15799,10 +15794,10 @@
         <v>485</v>
       </c>
       <c r="N324" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O324" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.25">
@@ -16034,10 +16029,10 @@
         <v>987</v>
       </c>
       <c r="N329" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O329" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.25">
@@ -16269,10 +16264,10 @@
         <v>412</v>
       </c>
       <c r="N334" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O334" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.25">
@@ -16504,10 +16499,10 @@
         <v>610</v>
       </c>
       <c r="N339" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O339" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.25">
@@ -16739,10 +16734,10 @@
         <v>363</v>
       </c>
       <c r="N344" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O344" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.25">
@@ -16974,10 +16969,10 @@
         <v>959</v>
       </c>
       <c r="N349" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O349" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.25">
@@ -17209,10 +17204,10 @@
         <v>1048</v>
       </c>
       <c r="N354" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O354" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.25">
@@ -17444,10 +17439,10 @@
         <v>272</v>
       </c>
       <c r="N359" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O359" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.25">
@@ -17552,7 +17547,7 @@
         <v>22</v>
       </c>
       <c r="C362" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D362">
         <v>181800</v>
@@ -17561,7 +17556,7 @@
         <v>999999999</v>
       </c>
       <c r="N362" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.25">
@@ -17572,16 +17567,16 @@
         <v>22</v>
       </c>
       <c r="C363" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D363">
-        <v>941795</v>
+        <v>454500</v>
       </c>
       <c r="E363">
         <v>888888888</v>
       </c>
       <c r="N363" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.25">
@@ -17592,7 +17587,7 @@
         <v>22</v>
       </c>
       <c r="C364" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D364">
         <v>322300</v>
@@ -17618,10 +17613,10 @@
         <v>349000</v>
       </c>
       <c r="E365">
-        <v>666666666</v>
+        <v>777777777</v>
       </c>
       <c r="N365" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/CGL Retailer Details.xlsx
+++ b/CGL Retailer Details.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\chatbot\chatbot-CGL-dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201307\Documents\Chatbot_HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84455E25-2412-444F-A1A9-89C37ADF79B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B134197-933E-47F6-BDB2-DAACDB1BD168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F79E525A-48BB-4130-9810-4A9F66D41FDF}"/>
   </bookViews>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="54">
   <si>
     <t>PO</t>
   </si>
@@ -171,9 +173,6 @@
     <t>NI</t>
   </si>
   <si>
-    <t>Vittal</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
@@ -192,7 +191,13 @@
     <t>Raj </t>
   </si>
   <si>
-    <t>Umesh</t>
+    <t>Vithal</t>
+  </si>
+  <si>
+    <t>Chandra</t>
+  </si>
+  <si>
+    <t>WI</t>
   </si>
 </sst>
 </file>
@@ -552,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E1B2D3-CE6C-46DC-8AE9-A5EE63CDE89C}">
   <dimension ref="A1:O365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="D366" sqref="D366"/>
+    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
+      <selection activeCell="C364" sqref="C364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,10 +759,10 @@
         <v>1027</v>
       </c>
       <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
         <v>49</v>
-      </c>
-      <c r="O4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -989,10 +994,10 @@
         <v>612</v>
       </c>
       <c r="N9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" t="s">
         <v>49</v>
-      </c>
-      <c r="O9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1224,10 +1229,10 @@
         <v>1032</v>
       </c>
       <c r="N14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" t="s">
         <v>49</v>
-      </c>
-      <c r="O14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1459,10 +1464,10 @@
         <v>1033</v>
       </c>
       <c r="N19" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" t="s">
         <v>49</v>
-      </c>
-      <c r="O19" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1694,10 +1699,10 @@
         <v>539</v>
       </c>
       <c r="N24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24" t="s">
         <v>49</v>
-      </c>
-      <c r="O24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1929,10 +1934,10 @@
         <v>279</v>
       </c>
       <c r="N29" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29" t="s">
         <v>49</v>
-      </c>
-      <c r="O29" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2164,10 +2169,10 @@
         <v>713</v>
       </c>
       <c r="N34" t="s">
+        <v>48</v>
+      </c>
+      <c r="O34" t="s">
         <v>49</v>
-      </c>
-      <c r="O34" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2399,10 +2404,10 @@
         <v>299</v>
       </c>
       <c r="N39" t="s">
+        <v>48</v>
+      </c>
+      <c r="O39" t="s">
         <v>49</v>
-      </c>
-      <c r="O39" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2634,10 +2639,10 @@
         <v>819</v>
       </c>
       <c r="N44" t="s">
+        <v>48</v>
+      </c>
+      <c r="O44" t="s">
         <v>49</v>
-      </c>
-      <c r="O44" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2869,10 +2874,10 @@
         <v>261</v>
       </c>
       <c r="N49" t="s">
+        <v>48</v>
+      </c>
+      <c r="O49" t="s">
         <v>49</v>
-      </c>
-      <c r="O49" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3104,10 +3109,10 @@
         <v>683</v>
       </c>
       <c r="N54" t="s">
+        <v>48</v>
+      </c>
+      <c r="O54" t="s">
         <v>49</v>
-      </c>
-      <c r="O54" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -3339,10 +3344,10 @@
         <v>881</v>
       </c>
       <c r="N59" t="s">
+        <v>48</v>
+      </c>
+      <c r="O59" t="s">
         <v>49</v>
-      </c>
-      <c r="O59" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -3574,10 +3579,10 @@
         <v>886</v>
       </c>
       <c r="N64" t="s">
+        <v>48</v>
+      </c>
+      <c r="O64" t="s">
         <v>49</v>
-      </c>
-      <c r="O64" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -3809,10 +3814,10 @@
         <v>838</v>
       </c>
       <c r="N69" t="s">
+        <v>48</v>
+      </c>
+      <c r="O69" t="s">
         <v>49</v>
-      </c>
-      <c r="O69" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -4044,10 +4049,10 @@
         <v>197</v>
       </c>
       <c r="N74" t="s">
+        <v>48</v>
+      </c>
+      <c r="O74" t="s">
         <v>49</v>
-      </c>
-      <c r="O74" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -4279,10 +4284,10 @@
         <v>453</v>
       </c>
       <c r="N79" t="s">
+        <v>48</v>
+      </c>
+      <c r="O79" t="s">
         <v>49</v>
-      </c>
-      <c r="O79" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -4514,10 +4519,10 @@
         <v>742</v>
       </c>
       <c r="N84" t="s">
+        <v>48</v>
+      </c>
+      <c r="O84" t="s">
         <v>49</v>
-      </c>
-      <c r="O84" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
@@ -4749,10 +4754,10 @@
         <v>700</v>
       </c>
       <c r="N89" t="s">
+        <v>48</v>
+      </c>
+      <c r="O89" t="s">
         <v>49</v>
-      </c>
-      <c r="O89" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -4984,10 +4989,10 @@
         <v>437</v>
       </c>
       <c r="N94" t="s">
+        <v>48</v>
+      </c>
+      <c r="O94" t="s">
         <v>49</v>
-      </c>
-      <c r="O94" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
@@ -5219,10 +5224,10 @@
         <v>1039</v>
       </c>
       <c r="N99" t="s">
+        <v>48</v>
+      </c>
+      <c r="O99" t="s">
         <v>49</v>
-      </c>
-      <c r="O99" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -5454,10 +5459,10 @@
         <v>172</v>
       </c>
       <c r="N104" t="s">
+        <v>48</v>
+      </c>
+      <c r="O104" t="s">
         <v>49</v>
-      </c>
-      <c r="O104" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -5689,10 +5694,10 @@
         <v>457</v>
       </c>
       <c r="N109" t="s">
+        <v>48</v>
+      </c>
+      <c r="O109" t="s">
         <v>49</v>
-      </c>
-      <c r="O109" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -5924,10 +5929,10 @@
         <v>843</v>
       </c>
       <c r="N114" t="s">
+        <v>48</v>
+      </c>
+      <c r="O114" t="s">
         <v>49</v>
-      </c>
-      <c r="O114" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -6159,10 +6164,10 @@
         <v>921</v>
       </c>
       <c r="N119" t="s">
+        <v>48</v>
+      </c>
+      <c r="O119" t="s">
         <v>49</v>
-      </c>
-      <c r="O119" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -6394,10 +6399,10 @@
         <v>984</v>
       </c>
       <c r="N124" t="s">
+        <v>48</v>
+      </c>
+      <c r="O124" t="s">
         <v>49</v>
-      </c>
-      <c r="O124" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
@@ -6629,10 +6634,10 @@
         <v>1017</v>
       </c>
       <c r="N129" t="s">
+        <v>48</v>
+      </c>
+      <c r="O129" t="s">
         <v>49</v>
-      </c>
-      <c r="O129" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
@@ -6864,10 +6869,10 @@
         <v>260</v>
       </c>
       <c r="N134" t="s">
+        <v>48</v>
+      </c>
+      <c r="O134" t="s">
         <v>49</v>
-      </c>
-      <c r="O134" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
@@ -7099,10 +7104,10 @@
         <v>929</v>
       </c>
       <c r="N139" t="s">
+        <v>48</v>
+      </c>
+      <c r="O139" t="s">
         <v>49</v>
-      </c>
-      <c r="O139" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
@@ -7334,10 +7339,10 @@
         <v>739</v>
       </c>
       <c r="N144" t="s">
+        <v>48</v>
+      </c>
+      <c r="O144" t="s">
         <v>49</v>
-      </c>
-      <c r="O144" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
@@ -7569,10 +7574,10 @@
         <v>868</v>
       </c>
       <c r="N149" t="s">
+        <v>48</v>
+      </c>
+      <c r="O149" t="s">
         <v>49</v>
-      </c>
-      <c r="O149" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
@@ -7804,10 +7809,10 @@
         <v>889</v>
       </c>
       <c r="N154" t="s">
+        <v>48</v>
+      </c>
+      <c r="O154" t="s">
         <v>49</v>
-      </c>
-      <c r="O154" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
@@ -8039,10 +8044,10 @@
         <v>402</v>
       </c>
       <c r="N159" t="s">
+        <v>48</v>
+      </c>
+      <c r="O159" t="s">
         <v>49</v>
-      </c>
-      <c r="O159" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
@@ -8274,10 +8279,10 @@
         <v>199</v>
       </c>
       <c r="N164" t="s">
+        <v>48</v>
+      </c>
+      <c r="O164" t="s">
         <v>49</v>
-      </c>
-      <c r="O164" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -8509,10 +8514,10 @@
         <v>550</v>
       </c>
       <c r="N169" t="s">
+        <v>48</v>
+      </c>
+      <c r="O169" t="s">
         <v>49</v>
-      </c>
-      <c r="O169" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
@@ -8744,10 +8749,10 @@
         <v>197</v>
       </c>
       <c r="N174" t="s">
+        <v>48</v>
+      </c>
+      <c r="O174" t="s">
         <v>49</v>
-      </c>
-      <c r="O174" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -8979,10 +8984,10 @@
         <v>280</v>
       </c>
       <c r="N179" t="s">
+        <v>48</v>
+      </c>
+      <c r="O179" t="s">
         <v>49</v>
-      </c>
-      <c r="O179" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
@@ -9214,10 +9219,10 @@
         <v>552</v>
       </c>
       <c r="N184" t="s">
+        <v>48</v>
+      </c>
+      <c r="O184" t="s">
         <v>49</v>
-      </c>
-      <c r="O184" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
@@ -9449,10 +9454,10 @@
         <v>506</v>
       </c>
       <c r="N189" t="s">
+        <v>48</v>
+      </c>
+      <c r="O189" t="s">
         <v>49</v>
-      </c>
-      <c r="O189" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
@@ -9684,10 +9689,10 @@
         <v>241</v>
       </c>
       <c r="N194" t="s">
+        <v>48</v>
+      </c>
+      <c r="O194" t="s">
         <v>49</v>
-      </c>
-      <c r="O194" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
@@ -9919,10 +9924,10 @@
         <v>551</v>
       </c>
       <c r="N199" t="s">
+        <v>48</v>
+      </c>
+      <c r="O199" t="s">
         <v>49</v>
-      </c>
-      <c r="O199" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
@@ -10154,10 +10159,10 @@
         <v>878</v>
       </c>
       <c r="N204" t="s">
+        <v>48</v>
+      </c>
+      <c r="O204" t="s">
         <v>49</v>
-      </c>
-      <c r="O204" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
@@ -10389,10 +10394,10 @@
         <v>378</v>
       </c>
       <c r="N209" t="s">
+        <v>48</v>
+      </c>
+      <c r="O209" t="s">
         <v>49</v>
-      </c>
-      <c r="O209" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
@@ -10624,10 +10629,10 @@
         <v>579</v>
       </c>
       <c r="N214" t="s">
+        <v>48</v>
+      </c>
+      <c r="O214" t="s">
         <v>49</v>
-      </c>
-      <c r="O214" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
@@ -10859,10 +10864,10 @@
         <v>661</v>
       </c>
       <c r="N219" t="s">
+        <v>48</v>
+      </c>
+      <c r="O219" t="s">
         <v>49</v>
-      </c>
-      <c r="O219" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
@@ -11094,10 +11099,10 @@
         <v>1039</v>
       </c>
       <c r="N224" t="s">
+        <v>48</v>
+      </c>
+      <c r="O224" t="s">
         <v>49</v>
-      </c>
-      <c r="O224" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
@@ -11329,10 +11334,10 @@
         <v>835</v>
       </c>
       <c r="N229" t="s">
+        <v>48</v>
+      </c>
+      <c r="O229" t="s">
         <v>49</v>
-      </c>
-      <c r="O229" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
@@ -11564,10 +11569,10 @@
         <v>972</v>
       </c>
       <c r="N234" t="s">
+        <v>48</v>
+      </c>
+      <c r="O234" t="s">
         <v>49</v>
-      </c>
-      <c r="O234" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
@@ -11799,10 +11804,10 @@
         <v>955</v>
       </c>
       <c r="N239" t="s">
+        <v>48</v>
+      </c>
+      <c r="O239" t="s">
         <v>49</v>
-      </c>
-      <c r="O239" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
@@ -12034,10 +12039,10 @@
         <v>594</v>
       </c>
       <c r="N244" t="s">
+        <v>48</v>
+      </c>
+      <c r="O244" t="s">
         <v>49</v>
-      </c>
-      <c r="O244" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
@@ -12269,10 +12274,10 @@
         <v>294</v>
       </c>
       <c r="N249" t="s">
+        <v>48</v>
+      </c>
+      <c r="O249" t="s">
         <v>49</v>
-      </c>
-      <c r="O249" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
@@ -12504,10 +12509,10 @@
         <v>466</v>
       </c>
       <c r="N254" t="s">
+        <v>48</v>
+      </c>
+      <c r="O254" t="s">
         <v>49</v>
-      </c>
-      <c r="O254" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
@@ -12739,10 +12744,10 @@
         <v>491</v>
       </c>
       <c r="N259" t="s">
+        <v>48</v>
+      </c>
+      <c r="O259" t="s">
         <v>49</v>
-      </c>
-      <c r="O259" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.25">
@@ -12974,10 +12979,10 @@
         <v>1007</v>
       </c>
       <c r="N264" t="s">
+        <v>48</v>
+      </c>
+      <c r="O264" t="s">
         <v>49</v>
-      </c>
-      <c r="O264" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
@@ -13209,10 +13214,10 @@
         <v>1108</v>
       </c>
       <c r="N269" t="s">
+        <v>48</v>
+      </c>
+      <c r="O269" t="s">
         <v>49</v>
-      </c>
-      <c r="O269" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
@@ -13444,10 +13449,10 @@
         <v>1066</v>
       </c>
       <c r="N274" t="s">
+        <v>48</v>
+      </c>
+      <c r="O274" t="s">
         <v>49</v>
-      </c>
-      <c r="O274" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
@@ -13679,10 +13684,10 @@
         <v>426</v>
       </c>
       <c r="N279" t="s">
+        <v>48</v>
+      </c>
+      <c r="O279" t="s">
         <v>49</v>
-      </c>
-      <c r="O279" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
@@ -13914,10 +13919,10 @@
         <v>308</v>
       </c>
       <c r="N284" t="s">
+        <v>48</v>
+      </c>
+      <c r="O284" t="s">
         <v>49</v>
-      </c>
-      <c r="O284" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
@@ -14149,10 +14154,10 @@
         <v>306</v>
       </c>
       <c r="N289" t="s">
+        <v>48</v>
+      </c>
+      <c r="O289" t="s">
         <v>49</v>
-      </c>
-      <c r="O289" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.25">
@@ -14384,10 +14389,10 @@
         <v>443</v>
       </c>
       <c r="N294" t="s">
+        <v>48</v>
+      </c>
+      <c r="O294" t="s">
         <v>49</v>
-      </c>
-      <c r="O294" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.25">
@@ -14619,10 +14624,10 @@
         <v>368</v>
       </c>
       <c r="N299" t="s">
+        <v>48</v>
+      </c>
+      <c r="O299" t="s">
         <v>49</v>
-      </c>
-      <c r="O299" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.25">
@@ -14854,10 +14859,10 @@
         <v>571</v>
       </c>
       <c r="N304" t="s">
+        <v>48</v>
+      </c>
+      <c r="O304" t="s">
         <v>49</v>
-      </c>
-      <c r="O304" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.25">
@@ -15089,10 +15094,10 @@
         <v>762</v>
       </c>
       <c r="N309" t="s">
+        <v>48</v>
+      </c>
+      <c r="O309" t="s">
         <v>49</v>
-      </c>
-      <c r="O309" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.25">
@@ -15324,10 +15329,10 @@
         <v>423</v>
       </c>
       <c r="N314" t="s">
+        <v>48</v>
+      </c>
+      <c r="O314" t="s">
         <v>49</v>
-      </c>
-      <c r="O314" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.25">
@@ -15559,10 +15564,10 @@
         <v>1068</v>
       </c>
       <c r="N319" t="s">
+        <v>48</v>
+      </c>
+      <c r="O319" t="s">
         <v>49</v>
-      </c>
-      <c r="O319" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.25">
@@ -15794,10 +15799,10 @@
         <v>485</v>
       </c>
       <c r="N324" t="s">
+        <v>48</v>
+      </c>
+      <c r="O324" t="s">
         <v>49</v>
-      </c>
-      <c r="O324" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.25">
@@ -16029,10 +16034,10 @@
         <v>987</v>
       </c>
       <c r="N329" t="s">
+        <v>48</v>
+      </c>
+      <c r="O329" t="s">
         <v>49</v>
-      </c>
-      <c r="O329" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.25">
@@ -16264,10 +16269,10 @@
         <v>412</v>
       </c>
       <c r="N334" t="s">
+        <v>48</v>
+      </c>
+      <c r="O334" t="s">
         <v>49</v>
-      </c>
-      <c r="O334" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.25">
@@ -16499,10 +16504,10 @@
         <v>610</v>
       </c>
       <c r="N339" t="s">
+        <v>48</v>
+      </c>
+      <c r="O339" t="s">
         <v>49</v>
-      </c>
-      <c r="O339" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.25">
@@ -16734,10 +16739,10 @@
         <v>363</v>
       </c>
       <c r="N344" t="s">
+        <v>48</v>
+      </c>
+      <c r="O344" t="s">
         <v>49</v>
-      </c>
-      <c r="O344" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.25">
@@ -16969,10 +16974,10 @@
         <v>959</v>
       </c>
       <c r="N349" t="s">
+        <v>48</v>
+      </c>
+      <c r="O349" t="s">
         <v>49</v>
-      </c>
-      <c r="O349" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.25">
@@ -17204,10 +17209,10 @@
         <v>1048</v>
       </c>
       <c r="N354" t="s">
+        <v>48</v>
+      </c>
+      <c r="O354" t="s">
         <v>49</v>
-      </c>
-      <c r="O354" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.25">
@@ -17439,10 +17444,10 @@
         <v>272</v>
       </c>
       <c r="N359" t="s">
+        <v>48</v>
+      </c>
+      <c r="O359" t="s">
         <v>49</v>
-      </c>
-      <c r="O359" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.25">
@@ -17547,7 +17552,7 @@
         <v>22</v>
       </c>
       <c r="C362" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D362">
         <v>181800</v>
@@ -17556,7 +17561,7 @@
         <v>999999999</v>
       </c>
       <c r="N362" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.25">
@@ -17567,7 +17572,7 @@
         <v>22</v>
       </c>
       <c r="C363" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D363">
         <v>454500</v>
@@ -17576,7 +17581,7 @@
         <v>888888888</v>
       </c>
       <c r="N363" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.25">
@@ -17587,7 +17592,7 @@
         <v>22</v>
       </c>
       <c r="C364" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D364">
         <v>322300</v>
@@ -17613,10 +17618,10 @@
         <v>349000</v>
       </c>
       <c r="E365">
-        <v>777777777</v>
+        <v>666666666</v>
       </c>
       <c r="N365" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/CGL Retailer Details.xlsx
+++ b/CGL Retailer Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201307\Documents\Chatbot_HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B134197-933E-47F6-BDB2-DAACDB1BD168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE2D538-9AA8-4664-9C8C-E1129524DEBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F79E525A-48BB-4130-9810-4A9F66D41FDF}"/>
   </bookViews>
@@ -194,10 +194,10 @@
     <t>Vithal</t>
   </si>
   <si>
-    <t>Chandra</t>
+    <t>WI</t>
   </si>
   <si>
-    <t>WI</t>
+    <t>Umesh</t>
   </si>
 </sst>
 </file>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E1B2D3-CE6C-46DC-8AE9-A5EE63CDE89C}">
   <dimension ref="A1:O365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="C364" sqref="C364"/>
+    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="C366" sqref="C366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17612,7 +17612,7 @@
         <v>22</v>
       </c>
       <c r="C365" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D365">
         <v>349000</v>
@@ -17621,7 +17621,7 @@
         <v>666666666</v>
       </c>
       <c r="N365" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -17632,12 +17632,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17755,15 +17752,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37994435-2A3E-43A8-870D-793DD8A6382F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBD8E120-5285-40A4-8B0C-33046C86846D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17785,16 +17792,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBD8E120-5285-40A4-8B0C-33046C86846D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37994435-2A3E-43A8-870D-793DD8A6382F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>